--- a/trend_results/Rivers/WhanganuiatWadesLanding_5c7967a111.xlsx
+++ b/trend_results/Rivers/WhanganuiatWadesLanding_5c7967a111.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W28"/>
+  <dimension ref="A1:W40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,7 +441,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>variable</t>
+          <t>parameter name</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -664,7 +664,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0.0564463955825201</v>
+        <v>0.94355360441748</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -697,7 +697,7 @@
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Very unlikely increasing</t>
+          <t>Very likely increasing</t>
         </is>
       </c>
       <c r="Q3" t="n">
@@ -1210,7 +1210,7 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0.12922610326501</v>
+        <v>0.8707738967349899</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -1243,7 +1243,7 @@
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Unlikely increasing</t>
+          <t>Likely increasing</t>
         </is>
       </c>
       <c r="Q9" t="n">
@@ -1741,42 +1741,42 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D15" t="b">
         <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope based on tied non-censored values</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>0.115885138794147</v>
+        <v>0.560173954575357</v>
       </c>
       <c r="G15" t="n">
-        <v>0.00625</v>
+        <v>0.008547008547008499</v>
       </c>
       <c r="H15" t="n">
-        <v>0.66875</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="I15" t="n">
         <v>1</v>
       </c>
       <c r="J15" t="n">
-        <v>0.715</v>
+        <v>0.71</v>
       </c>
       <c r="K15" t="n">
-        <v>-0.0119165720991412</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>-0.0250858516483516</v>
+        <v>-0.0219737668180261</v>
       </c>
       <c r="M15" t="n">
-        <v>0.0025053991462487</v>
+        <v>0.020165668117991</v>
       </c>
       <c r="N15" t="n">
-        <v>-1.66665344043932</v>
+        <v>0</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -1785,7 +1785,7 @@
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q15" t="n">
@@ -1828,46 +1828,46 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Dissolved Reactive Phosphorus</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>0.161461039482072</v>
+        <v>0.622611786706448</v>
       </c>
       <c r="G16" t="n">
-        <v>0.09625668449197861</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0.165775401069519</v>
+        <v>0.9</v>
       </c>
       <c r="I16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0.011</v>
+        <v>10.22</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>0.0069971264367816</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>-0.0293395241460159</v>
       </c>
       <c r="M16" t="n">
-        <v>0.0002170231729055</v>
+        <v>0.0400760215280578</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>0.0684650336280004</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -1876,7 +1876,7 @@
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>As likely as not increasing</t>
         </is>
       </c>
       <c r="Q16" t="n">
@@ -1907,7 +1907,7 @@
       </c>
       <c r="W16" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -1919,46 +1919,46 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>E. coli</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D17" t="b">
+        <v>0</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F17" t="n">
+        <v>0.0010206268466041</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.103703703703704</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.185185185185185</v>
+      </c>
+      <c r="I17" t="n">
         <v>1</v>
       </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>0.7610881737363731</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0.0267379679144385</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0.679144385026738</v>
-      </c>
-      <c r="I17" t="n">
-        <v>5</v>
-      </c>
       <c r="J17" t="n">
-        <v>160</v>
+        <v>0.011</v>
       </c>
       <c r="K17" t="n">
-        <v>-0.668268289284396</v>
+        <v>0.0004071906354515</v>
       </c>
       <c r="L17" t="n">
-        <v>-6.00106527734377</v>
+        <v>0.0001683167088991</v>
       </c>
       <c r="M17" t="n">
-        <v>0.762896844378079</v>
+        <v>0.0006282566076941</v>
       </c>
       <c r="N17" t="n">
-        <v>-0.417667680802748</v>
+        <v>3.70173304955913</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -1967,7 +1967,7 @@
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q17" t="n">
@@ -1998,7 +1998,7 @@
       </c>
       <c r="W17" t="inlineStr">
         <is>
-          <t>E. coli/100 mL</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -2010,43 +2010,43 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Ammoniacal Nitrogen (NH4)</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>WARNING: Sen slope based on tied non-censored values</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>0.471277407300842</v>
+        <v>0.5</v>
       </c>
       <c r="G18" t="n">
-        <v>0.794444444444444</v>
+        <v>0.0222222222222222</v>
       </c>
       <c r="H18" t="n">
-        <v>0.25</v>
+        <v>0.711111111111111</v>
       </c>
       <c r="I18" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="J18" t="n">
-        <v>0.005</v>
+        <v>137</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>-4.52771796403176</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>2.89077150572117</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -2089,7 +2089,7 @@
       </c>
       <c r="W18" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>E. coli/100 mL</t>
         </is>
       </c>
     </row>
@@ -2101,46 +2101,46 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Nitrate Nitrogen (NO3)</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope based on two censored values</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>0.0589593611638118</v>
+        <v>0.312296856658589</v>
       </c>
       <c r="G19" t="n">
-        <v>0.154761904761905</v>
+        <v>0.807692307692308</v>
       </c>
       <c r="H19" t="n">
-        <v>0.696428571428571</v>
+        <v>0.246153846153846</v>
       </c>
       <c r="I19" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J19" t="n">
-        <v>0.2355</v>
+        <v>0.005</v>
       </c>
       <c r="K19" t="n">
-        <v>0.000801572787125</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>0.0034853254007132</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>0.3403706102442</v>
+        <v>0</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
@@ -2149,7 +2149,7 @@
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>Very unlikely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q19" t="n">
@@ -2192,46 +2192,46 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>SIN (Soluble Inorganic nitrogen)</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D20" t="b">
         <v>1</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>0.11721820815962</v>
+        <v>0.0622163627827509</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0483870967741935</v>
+        <v>0.163793103448276</v>
       </c>
       <c r="H20" t="n">
-        <v>0.763440860215054</v>
+        <v>0.7844827586206899</v>
       </c>
       <c r="I20" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J20" t="n">
-        <v>0.236</v>
+        <v>0.233</v>
       </c>
       <c r="K20" t="n">
-        <v>0.0009982236329087</v>
+        <v>0.0018337517115472</v>
       </c>
       <c r="L20" t="n">
-        <v>-0.0003998900821418</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0.0033876069399006</v>
+        <v>0.0070175344886779</v>
       </c>
       <c r="N20" t="n">
-        <v>0.422976115639315</v>
+        <v>0.787017901951605</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
@@ -2240,7 +2240,7 @@
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Very unlikely improving</t>
         </is>
       </c>
       <c r="Q20" t="n">
@@ -2271,7 +2271,7 @@
       </c>
       <c r="W20" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -2283,11 +2283,11 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Turbidity</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D21" t="b">
         <v>1</v>
@@ -2298,31 +2298,31 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>0.129807034494198</v>
+        <v>0.562026456203754</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0.909574468085106</v>
+        <v>0.646153846153846</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>7.25</v>
+        <v>7.7</v>
       </c>
       <c r="K21" t="n">
-        <v>0.0652232142857143</v>
+        <v>0.001425644028103</v>
       </c>
       <c r="L21" t="n">
-        <v>-0.0267126814856807</v>
+        <v>-0.0149797271645114</v>
       </c>
       <c r="M21" t="n">
-        <v>0.174011197274104</v>
+        <v>0.0139139885656497</v>
       </c>
       <c r="N21" t="n">
-        <v>0.899630541871921</v>
+        <v>0.0185148575078314</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
@@ -2331,7 +2331,7 @@
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>As likely as not increasing</t>
         </is>
       </c>
       <c r="Q21" t="n">
@@ -2360,11 +2360,7 @@
           <t>Whai_5a</t>
         </is>
       </c>
-      <c r="W21" t="inlineStr">
-        <is>
-          <t>NTU/FNU</t>
-        </is>
-      </c>
+      <c r="W21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -2374,14 +2370,14 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -2389,31 +2385,31 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>0.40324797025367</v>
+        <v>0.06745562472793661</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>0.0518518518518519</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>0.807407407407407</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J22" t="n">
-        <v>0.362</v>
+        <v>0.235</v>
       </c>
       <c r="K22" t="n">
-        <v>-0.0138230387652548</v>
+        <v>0.0014578872439224</v>
       </c>
       <c r="L22" t="n">
-        <v>-0.130481479088811</v>
+        <v>-0.0001909122381532</v>
       </c>
       <c r="M22" t="n">
-        <v>0.0594156296771896</v>
+        <v>0.004442893217465</v>
       </c>
       <c r="N22" t="n">
-        <v>-3.81851899592675</v>
+        <v>0.620377550605288</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
@@ -2422,7 +2418,7 @@
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Very unlikely improving</t>
         </is>
       </c>
       <c r="Q22" t="n">
@@ -2451,7 +2447,11 @@
           <t>Whai_5a</t>
         </is>
       </c>
-      <c r="W22" t="inlineStr"/>
+      <c r="W22" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -2461,14 +2461,14 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>MCI (Macroinvertebrate Community Index)</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -2476,31 +2476,31 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>0.40324797025367</v>
+        <v>0.191851801954614</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
+        <v>0.711111111111111</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>103</v>
+        <v>0.45</v>
       </c>
       <c r="K23" t="n">
-        <v>-3.28604930270951</v>
+        <v>0.0029274993211546</v>
       </c>
       <c r="L23" t="n">
-        <v>-22.0067084858693</v>
+        <v>-0.0024089209229441</v>
       </c>
       <c r="M23" t="n">
-        <v>3.76699934023145</v>
+        <v>0.0073331251362849</v>
       </c>
       <c r="N23" t="n">
-        <v>-3.19033912884419</v>
+        <v>0.650555404701043</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
@@ -2509,7 +2509,7 @@
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q23" t="n">
@@ -2538,7 +2538,11 @@
           <t>Whai_5a</t>
         </is>
       </c>
-      <c r="W23" t="inlineStr"/>
+      <c r="W23" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -2548,14 +2552,14 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -2563,31 +2567,31 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>0.59675202974633</v>
+        <v>0.343001274618626</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>0.0074074074074074</v>
       </c>
       <c r="H24" t="n">
+        <v>0.496296296296296</v>
+      </c>
+      <c r="I24" t="n">
         <v>1</v>
       </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
       <c r="J24" t="n">
-        <v>4.133</v>
+        <v>0.032</v>
       </c>
       <c r="K24" t="n">
-        <v>0.111445387652549</v>
+        <v>0.0001547607590316</v>
       </c>
       <c r="L24" t="n">
-        <v>-1.26351837143859</v>
+        <v>-0.0005002525385969</v>
       </c>
       <c r="M24" t="n">
-        <v>0.744713441516565</v>
+        <v>0.0008833570102128999</v>
       </c>
       <c r="N24" t="n">
-        <v>2.69647683650009</v>
+        <v>0.483627371974023</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
@@ -2625,7 +2629,11 @@
           <t>Whai_5a</t>
         </is>
       </c>
-      <c r="W24" t="inlineStr"/>
+      <c r="W24" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -2635,14 +2643,14 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -2650,31 +2658,31 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>0.053702318165127</v>
+        <v>0.105213289039543</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
+        <v>0.925925925925926</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0.451</v>
+        <v>7.09</v>
       </c>
       <c r="K25" t="n">
-        <v>-0.0164887140902873</v>
+        <v>0.1171788003663</v>
       </c>
       <c r="L25" t="n">
-        <v>-0.0324744696156212</v>
+        <v>-0.0292261193711947</v>
       </c>
       <c r="M25" t="n">
-        <v>-0.0009980660700268</v>
+        <v>0.362026724547991</v>
       </c>
       <c r="N25" t="n">
-        <v>-3.65603416636082</v>
+        <v>1.65273343252892</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
@@ -2683,7 +2691,7 @@
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>Very unlikely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q25" t="n">
@@ -2712,7 +2720,11 @@
           <t>Whai_5a</t>
         </is>
       </c>
-      <c r="W25" t="inlineStr"/>
+      <c r="W25" t="inlineStr">
+        <is>
+          <t>NTU/FNU</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -2722,14 +2734,14 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>MCI (Macroinvertebrate Community Index)</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -2737,31 +2749,31 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>0.088983712984032</v>
+        <v>0.115885138794147</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>0.00625</v>
       </c>
       <c r="H26" t="n">
-        <v>0.9</v>
+        <v>0.66875</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J26" t="n">
-        <v>104</v>
+        <v>0.715</v>
       </c>
       <c r="K26" t="n">
-        <v>-1.0057365764112</v>
+        <v>-0.0119165720991412</v>
       </c>
       <c r="L26" t="n">
-        <v>-4.665398450002</v>
+        <v>-0.0250858516483516</v>
       </c>
       <c r="M26" t="n">
-        <v>0.48564038912924</v>
+        <v>0.0025053991462487</v>
       </c>
       <c r="N26" t="n">
-        <v>-0.967054400395382</v>
+        <v>-1.66665344043932</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
@@ -2770,7 +2782,7 @@
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>Very unlikely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q26" t="n">
@@ -2799,7 +2811,11 @@
           <t>Whai_5a</t>
         </is>
       </c>
-      <c r="W26" t="inlineStr"/>
+      <c r="W26" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -2809,46 +2825,46 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D27" t="b">
         <v>0</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>0.360257393568128</v>
+        <v>0.161461039482072</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>0.09625668449197861</v>
       </c>
       <c r="H27" t="n">
+        <v>0.165775401069519</v>
+      </c>
+      <c r="I27" t="n">
         <v>1</v>
       </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
       <c r="J27" t="n">
-        <v>4.6155</v>
+        <v>0.011</v>
       </c>
       <c r="K27" t="n">
-        <v>-0.0809098101265822</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>-0.273281245780997</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0.146318538067683</v>
+        <v>0.0002170231729055</v>
       </c>
       <c r="N27" t="n">
-        <v>-1.75300206102442</v>
+        <v>0</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
@@ -2857,7 +2873,7 @@
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q27" t="n">
@@ -2886,7 +2902,11 @@
           <t>Whai_5a</t>
         </is>
       </c>
-      <c r="W27" t="inlineStr"/>
+      <c r="W27" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -2896,14 +2916,14 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>MCI (Macroinvertebrate Community Index)</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C28" t="n">
         <v>20</v>
       </c>
       <c r="D28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -2911,31 +2931,31 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>0.163872605575091</v>
+        <v>0.7610881737363731</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>0.0267379679144385</v>
       </c>
       <c r="H28" t="n">
-        <v>0.65</v>
+        <v>0.679144385026738</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J28" t="n">
-        <v>105.5</v>
+        <v>160</v>
       </c>
       <c r="K28" t="n">
-        <v>-0.298178993836415</v>
+        <v>-0.668268289284396</v>
       </c>
       <c r="L28" t="n">
-        <v>-0.771684287428881</v>
+        <v>-6.00106527734377</v>
       </c>
       <c r="M28" t="n">
-        <v>0.238995305161629</v>
+        <v>0.762896844378079</v>
       </c>
       <c r="N28" t="n">
-        <v>-0.282634117380488</v>
+        <v>-0.417667680802748</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
@@ -2944,7 +2964,7 @@
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q28" t="n">
@@ -2973,7 +2993,1071 @@
           <t>Whai_5a</t>
         </is>
       </c>
-      <c r="W28" t="inlineStr"/>
+      <c r="W28" t="inlineStr">
+        <is>
+          <t>E. coli/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Whanganui at Wades Landing</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Ammoniacal Nitrogen (NH4)</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>20</v>
+      </c>
+      <c r="D29" t="b">
+        <v>0</v>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>WARNING: Sen slope influenced by censored values</t>
+        </is>
+      </c>
+      <c r="F29" t="n">
+        <v>0.471277407300842</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.794444444444444</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="I29" t="n">
+        <v>10</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>As likely as not improving</t>
+        </is>
+      </c>
+      <c r="Q29" t="n">
+        <v>1778217</v>
+      </c>
+      <c r="R29" t="n">
+        <v>5668812</v>
+      </c>
+      <c r="S29" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="T29" t="inlineStr">
+        <is>
+          <t>Whanganui</t>
+        </is>
+      </c>
+      <c r="U29" t="inlineStr">
+        <is>
+          <t>Pipiriki</t>
+        </is>
+      </c>
+      <c r="V29" t="inlineStr">
+        <is>
+          <t>Whai_5a</t>
+        </is>
+      </c>
+      <c r="W29" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Whanganui at Wades Landing</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Nitrate Nitrogen (NO3)</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>20</v>
+      </c>
+      <c r="D30" t="b">
+        <v>1</v>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
+        <v>0.0589593611638118</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.154761904761905</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0.696428571428571</v>
+      </c>
+      <c r="I30" t="n">
+        <v>4</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0.2355</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0.000801572787125</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0.0034853254007132</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0.3403706102442</v>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>Very unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q30" t="n">
+        <v>1778217</v>
+      </c>
+      <c r="R30" t="n">
+        <v>5668812</v>
+      </c>
+      <c r="S30" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="T30" t="inlineStr">
+        <is>
+          <t>Whanganui</t>
+        </is>
+      </c>
+      <c r="U30" t="inlineStr">
+        <is>
+          <t>Pipiriki</t>
+        </is>
+      </c>
+      <c r="V30" t="inlineStr">
+        <is>
+          <t>Whai_5a</t>
+        </is>
+      </c>
+      <c r="W30" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Whanganui at Wades Landing</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>20</v>
+      </c>
+      <c r="D31" t="b">
+        <v>1</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v>0.11721820815962</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.0483870967741935</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0.763440860215054</v>
+      </c>
+      <c r="I31" t="n">
+        <v>4</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0.236</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0.0009982236329087</v>
+      </c>
+      <c r="L31" t="n">
+        <v>-0.0003998900821418</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0.0033876069399006</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0.422976115639315</v>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>Unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q31" t="n">
+        <v>1778217</v>
+      </c>
+      <c r="R31" t="n">
+        <v>5668812</v>
+      </c>
+      <c r="S31" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="T31" t="inlineStr">
+        <is>
+          <t>Whanganui</t>
+        </is>
+      </c>
+      <c r="U31" t="inlineStr">
+        <is>
+          <t>Pipiriki</t>
+        </is>
+      </c>
+      <c r="V31" t="inlineStr">
+        <is>
+          <t>Whai_5a</t>
+        </is>
+      </c>
+      <c r="W31" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Whanganui at Wades Landing</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Turbidity</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>20</v>
+      </c>
+      <c r="D32" t="b">
+        <v>1</v>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F32" t="n">
+        <v>0.129807034494198</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0.909574468085106</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0.0652232142857143</v>
+      </c>
+      <c r="L32" t="n">
+        <v>-0.0267126814856807</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0.174011197274104</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0.899630541871921</v>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>Unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q32" t="n">
+        <v>1778217</v>
+      </c>
+      <c r="R32" t="n">
+        <v>5668812</v>
+      </c>
+      <c r="S32" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="T32" t="inlineStr">
+        <is>
+          <t>Whanganui</t>
+        </is>
+      </c>
+      <c r="U32" t="inlineStr">
+        <is>
+          <t>Pipiriki</t>
+        </is>
+      </c>
+      <c r="V32" t="inlineStr">
+        <is>
+          <t>Whai_5a</t>
+        </is>
+      </c>
+      <c r="W32" t="inlineStr">
+        <is>
+          <t>NTU/FNU</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Whanganui at Wades Landing</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>5</v>
+      </c>
+      <c r="D33" t="b">
+        <v>0</v>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F33" t="n">
+        <v>0.40324797025367</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0</v>
+      </c>
+      <c r="H33" t="n">
+        <v>1</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0.362</v>
+      </c>
+      <c r="K33" t="n">
+        <v>-0.0138230387652548</v>
+      </c>
+      <c r="L33" t="n">
+        <v>-0.130481479088811</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0.0594156296771896</v>
+      </c>
+      <c r="N33" t="n">
+        <v>-3.81851899592675</v>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>As likely as not improving</t>
+        </is>
+      </c>
+      <c r="Q33" t="n">
+        <v>1778217</v>
+      </c>
+      <c r="R33" t="n">
+        <v>5668812</v>
+      </c>
+      <c r="S33" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="T33" t="inlineStr">
+        <is>
+          <t>Whanganui</t>
+        </is>
+      </c>
+      <c r="U33" t="inlineStr">
+        <is>
+          <t>Pipiriki</t>
+        </is>
+      </c>
+      <c r="V33" t="inlineStr">
+        <is>
+          <t>Whai_5a</t>
+        </is>
+      </c>
+      <c r="W33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Whanganui at Wades Landing</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>MCI (Macroinvertebrate Community Index)</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>5</v>
+      </c>
+      <c r="D34" t="b">
+        <v>0</v>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F34" t="n">
+        <v>0.40324797025367</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="n">
+        <v>1</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>103</v>
+      </c>
+      <c r="K34" t="n">
+        <v>-3.28604930270951</v>
+      </c>
+      <c r="L34" t="n">
+        <v>-22.0067084858693</v>
+      </c>
+      <c r="M34" t="n">
+        <v>3.76699934023145</v>
+      </c>
+      <c r="N34" t="n">
+        <v>-3.19033912884419</v>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>As likely as not improving</t>
+        </is>
+      </c>
+      <c r="Q34" t="n">
+        <v>1778217</v>
+      </c>
+      <c r="R34" t="n">
+        <v>5668812</v>
+      </c>
+      <c r="S34" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="T34" t="inlineStr">
+        <is>
+          <t>Whanganui</t>
+        </is>
+      </c>
+      <c r="U34" t="inlineStr">
+        <is>
+          <t>Pipiriki</t>
+        </is>
+      </c>
+      <c r="V34" t="inlineStr">
+        <is>
+          <t>Whai_5a</t>
+        </is>
+      </c>
+      <c r="W34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Whanganui at Wades Landing</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>5</v>
+      </c>
+      <c r="D35" t="b">
+        <v>0</v>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F35" t="n">
+        <v>0.59675202974633</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>1</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>4.133</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0.111445387652549</v>
+      </c>
+      <c r="L35" t="n">
+        <v>-1.26351837143859</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0.744713441516565</v>
+      </c>
+      <c r="N35" t="n">
+        <v>2.69647683650009</v>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>As likely as not improving</t>
+        </is>
+      </c>
+      <c r="Q35" t="n">
+        <v>1778217</v>
+      </c>
+      <c r="R35" t="n">
+        <v>5668812</v>
+      </c>
+      <c r="S35" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="T35" t="inlineStr">
+        <is>
+          <t>Whanganui</t>
+        </is>
+      </c>
+      <c r="U35" t="inlineStr">
+        <is>
+          <t>Pipiriki</t>
+        </is>
+      </c>
+      <c r="V35" t="inlineStr">
+        <is>
+          <t>Whai_5a</t>
+        </is>
+      </c>
+      <c r="W35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Whanganui at Wades Landing</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>10</v>
+      </c>
+      <c r="D36" t="b">
+        <v>0</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F36" t="n">
+        <v>0.053702318165127</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" t="n">
+        <v>1</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0.451</v>
+      </c>
+      <c r="K36" t="n">
+        <v>-0.0164887140902873</v>
+      </c>
+      <c r="L36" t="n">
+        <v>-0.0324744696156212</v>
+      </c>
+      <c r="M36" t="n">
+        <v>-0.0009980660700268</v>
+      </c>
+      <c r="N36" t="n">
+        <v>-3.65603416636082</v>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>Very unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q36" t="n">
+        <v>1778217</v>
+      </c>
+      <c r="R36" t="n">
+        <v>5668812</v>
+      </c>
+      <c r="S36" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="T36" t="inlineStr">
+        <is>
+          <t>Whanganui</t>
+        </is>
+      </c>
+      <c r="U36" t="inlineStr">
+        <is>
+          <t>Pipiriki</t>
+        </is>
+      </c>
+      <c r="V36" t="inlineStr">
+        <is>
+          <t>Whai_5a</t>
+        </is>
+      </c>
+      <c r="W36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Whanganui at Wades Landing</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>MCI (Macroinvertebrate Community Index)</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>10</v>
+      </c>
+      <c r="D37" t="b">
+        <v>0</v>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F37" t="n">
+        <v>0.088983712984032</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>104</v>
+      </c>
+      <c r="K37" t="n">
+        <v>-1.0057365764112</v>
+      </c>
+      <c r="L37" t="n">
+        <v>-4.665398450002</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0.48564038912924</v>
+      </c>
+      <c r="N37" t="n">
+        <v>-0.967054400395382</v>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>Very unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q37" t="n">
+        <v>1778217</v>
+      </c>
+      <c r="R37" t="n">
+        <v>5668812</v>
+      </c>
+      <c r="S37" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="T37" t="inlineStr">
+        <is>
+          <t>Whanganui</t>
+        </is>
+      </c>
+      <c r="U37" t="inlineStr">
+        <is>
+          <t>Pipiriki</t>
+        </is>
+      </c>
+      <c r="V37" t="inlineStr">
+        <is>
+          <t>Whai_5a</t>
+        </is>
+      </c>
+      <c r="W37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Whanganui at Wades Landing</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>10</v>
+      </c>
+      <c r="D38" t="b">
+        <v>0</v>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F38" t="n">
+        <v>0.360257393568128</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
+        <v>1</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>4.6155</v>
+      </c>
+      <c r="K38" t="n">
+        <v>-0.0809098101265822</v>
+      </c>
+      <c r="L38" t="n">
+        <v>-0.273281245780997</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0.146318538067683</v>
+      </c>
+      <c r="N38" t="n">
+        <v>-1.75300206102442</v>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>As likely as not improving</t>
+        </is>
+      </c>
+      <c r="Q38" t="n">
+        <v>1778217</v>
+      </c>
+      <c r="R38" t="n">
+        <v>5668812</v>
+      </c>
+      <c r="S38" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="T38" t="inlineStr">
+        <is>
+          <t>Whanganui</t>
+        </is>
+      </c>
+      <c r="U38" t="inlineStr">
+        <is>
+          <t>Pipiriki</t>
+        </is>
+      </c>
+      <c r="V38" t="inlineStr">
+        <is>
+          <t>Whai_5a</t>
+        </is>
+      </c>
+      <c r="W38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Whanganui at Wades Landing</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>MCI (Macroinvertebrate Community Index)</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>15</v>
+      </c>
+      <c r="D39" t="b">
+        <v>0</v>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F39" t="n">
+        <v>0.116326563292182</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0.7333333333333329</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>106</v>
+      </c>
+      <c r="K39" t="n">
+        <v>-0.499658002735978</v>
+      </c>
+      <c r="L39" t="n">
+        <v>-1.19775290286622</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0.250069449824952</v>
+      </c>
+      <c r="N39" t="n">
+        <v>-0.471375474279225</v>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>Unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q39" t="n">
+        <v>1778217</v>
+      </c>
+      <c r="R39" t="n">
+        <v>5668812</v>
+      </c>
+      <c r="S39" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="T39" t="inlineStr">
+        <is>
+          <t>Whanganui</t>
+        </is>
+      </c>
+      <c r="U39" t="inlineStr">
+        <is>
+          <t>Pipiriki</t>
+        </is>
+      </c>
+      <c r="V39" t="inlineStr">
+        <is>
+          <t>Whai_5a</t>
+        </is>
+      </c>
+      <c r="W39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Whanganui at Wades Landing</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>MCI (Macroinvertebrate Community Index)</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>20</v>
+      </c>
+      <c r="D40" t="b">
+        <v>0</v>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F40" t="n">
+        <v>0.163872605575091</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>105.5</v>
+      </c>
+      <c r="K40" t="n">
+        <v>-0.298178993836415</v>
+      </c>
+      <c r="L40" t="n">
+        <v>-0.771684287428881</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0.238995305161629</v>
+      </c>
+      <c r="N40" t="n">
+        <v>-0.282634117380488</v>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P40" t="inlineStr">
+        <is>
+          <t>Unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q40" t="n">
+        <v>1778217</v>
+      </c>
+      <c r="R40" t="n">
+        <v>5668812</v>
+      </c>
+      <c r="S40" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="T40" t="inlineStr">
+        <is>
+          <t>Whanganui</t>
+        </is>
+      </c>
+      <c r="U40" t="inlineStr">
+        <is>
+          <t>Pipiriki</t>
+        </is>
+      </c>
+      <c r="V40" t="inlineStr">
+        <is>
+          <t>Whai_5a</t>
+        </is>
+      </c>
+      <c r="W40" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
